--- a/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/აჭარა ა.რ/ქობულეთი.xlsx
+++ b/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/აჭარა ა.რ/ქობულეთი.xlsx
@@ -1,34 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სოციალური სტატისტიკა\ზოგადსაგანმანათლებლო დაწესებულებები\აჭარა ა.რ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\აჭარა ა.რ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185F8C9D-1DA3-44F7-B9AE-78521E98F416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="12075" yWindow="930" windowWidth="9255" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ქობულეთი" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+  <si>
+    <t>საჯარო და კერძო ზოგადსაგანმანათლებლო დაწესებულებები ქობულეთის მუნიციპალიტეტში</t>
+  </si>
   <si>
     <t>(სასწავლო წლის დასაწყისისთვის)</t>
   </si>
   <si>
+    <t>2010/2011*</t>
+  </si>
+  <si>
+    <t>2011/2012</t>
+  </si>
+  <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>2013/2014</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>2016/2017</t>
+  </si>
+  <si>
     <t>2017/2018</t>
   </si>
   <si>
@@ -42,6 +62,45 @@
   </si>
   <si>
     <t>2021/2022</t>
+  </si>
+  <si>
+    <t>2022/2023</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>სკოლების რაოდენობა (ერთეული)</t>
+  </si>
+  <si>
+    <t>მოსწავლეთა რიცხოვნობა (კაცი)</t>
+  </si>
+  <si>
+    <t>საშუალო სკოლის კურსდამთავრებულთა რიცხოვნობა</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    მათ შორის:   გოგო</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               ბიჭი</t>
+  </si>
+  <si>
+    <t>საშუალო სკოლის კურსდამთავრებულთა რიცხოვნობა 1000 მოსახლეზე;</t>
+  </si>
+  <si>
+    <t>პედაგოგების რიცხოვნობა (კაცი)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    მათ შორის:    ქალი</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               კაცი</t>
+  </si>
+  <si>
+    <t>* 2011 წლის 5 აპრილის მდგომარეობით.</t>
   </si>
   <si>
     <r>
@@ -51,7 +110,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>წყარო:</t>
     </r>
@@ -60,108 +119,76 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> საქართველოს განათლებისა და მეცნიერების სამინისტრო.
 </t>
     </r>
   </si>
-  <si>
-    <t>2010/2011*</t>
-  </si>
-  <si>
-    <t>2011/2012</t>
-  </si>
-  <si>
-    <t>2012/2013</t>
-  </si>
-  <si>
-    <t>2013/2014</t>
-  </si>
-  <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>─</t>
-  </si>
-  <si>
-    <t>* 2011 წლის 5 აპრილის მდგომარეობით.</t>
-  </si>
-  <si>
-    <t>საჯარო და კერძო ზოგადსაგანმანათლებლო დაწესებულებები ქობულეთის მუნიციპალიტეტში</t>
-  </si>
-  <si>
-    <t>სკოლების რაოდენობა (ერთეული)</t>
-  </si>
-  <si>
-    <t>მოსწავლეთა რიცხოვნობა (კაცი)</t>
-  </si>
-  <si>
-    <t>პედაგოგების რიცხოვნობა (კაცი)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="#\ ##0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -169,16 +196,10 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +210,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14996795556505021"/>
       </patternFill>
     </fill>
   </fills>
@@ -203,9 +230,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -213,74 +242,100 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,7 +396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,7 +431,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -551,115 +606,110 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
-    <col min="4" max="13" width="14.42578125" style="2" customWidth="1"/>
-    <col min="14" max="18" width="12" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="36.7109375" style="2" customWidth="1"/>
+    <col min="2" max="15" width="10.7109375" style="3" customWidth="1"/>
+    <col min="16" max="18" width="12" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="16" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+    </row>
+    <row r="3" spans="1:18" ht="21" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="21" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-    </row>
-    <row r="3" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="B4" s="11">
         <v>53</v>
@@ -697,10 +747,16 @@
       <c r="M4" s="11">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>18</v>
+      <c r="N4" s="11">
+        <v>49</v>
+      </c>
+      <c r="O4" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="21" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="12">
         <v>12747</v>
@@ -738,71 +794,534 @@
       <c r="M5" s="12">
         <v>12292</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="14">
+      <c r="N5" s="12">
+        <v>12460</v>
+      </c>
+      <c r="O5" s="12">
+        <v>12601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="30">
+      <c r="A6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="15">
+        <v>783</v>
+      </c>
+      <c r="D6" s="15">
+        <v>843</v>
+      </c>
+      <c r="E6" s="15">
+        <v>621</v>
+      </c>
+      <c r="F6" s="15">
+        <v>774</v>
+      </c>
+      <c r="G6" s="15">
+        <v>800</v>
+      </c>
+      <c r="H6" s="15">
+        <v>177</v>
+      </c>
+      <c r="I6" s="15">
+        <v>863</v>
+      </c>
+      <c r="J6" s="15">
+        <v>782</v>
+      </c>
+      <c r="K6" s="15">
+        <v>764</v>
+      </c>
+      <c r="L6" s="15">
+        <v>740</v>
+      </c>
+      <c r="M6" s="15">
+        <v>980</v>
+      </c>
+      <c r="N6" s="15">
+        <v>925</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="21" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12">
+        <v>395</v>
+      </c>
+      <c r="D7" s="12">
+        <v>456</v>
+      </c>
+      <c r="E7" s="12">
+        <v>319</v>
+      </c>
+      <c r="F7" s="12">
+        <v>404</v>
+      </c>
+      <c r="G7" s="12">
+        <v>388</v>
+      </c>
+      <c r="H7" s="12">
+        <v>73</v>
+      </c>
+      <c r="I7" s="12">
+        <v>428</v>
+      </c>
+      <c r="J7" s="12">
+        <v>385</v>
+      </c>
+      <c r="K7" s="12">
+        <v>365</v>
+      </c>
+      <c r="L7" s="12">
+        <v>335</v>
+      </c>
+      <c r="M7" s="12">
+        <v>451</v>
+      </c>
+      <c r="N7" s="12">
+        <v>461</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="21" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="12">
+        <v>388</v>
+      </c>
+      <c r="D8" s="12">
+        <v>387</v>
+      </c>
+      <c r="E8" s="12">
+        <v>302</v>
+      </c>
+      <c r="F8" s="12">
+        <v>370</v>
+      </c>
+      <c r="G8" s="12">
+        <v>412</v>
+      </c>
+      <c r="H8" s="12">
+        <v>98</v>
+      </c>
+      <c r="I8" s="12">
+        <v>435</v>
+      </c>
+      <c r="J8" s="12">
+        <v>397</v>
+      </c>
+      <c r="K8" s="12">
+        <v>399</v>
+      </c>
+      <c r="L8" s="12">
+        <v>405</v>
+      </c>
+      <c r="M8" s="12">
+        <v>529</v>
+      </c>
+      <c r="N8" s="12">
+        <v>464</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="27.75" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="30">
+        <v>10.4290147711078</v>
+      </c>
+      <c r="D9" s="30">
+        <v>11.264556733679401</v>
+      </c>
+      <c r="E9" s="30">
+        <v>8.3146443514644393</v>
+      </c>
+      <c r="F9" s="30">
+        <v>10.362763671417399</v>
+      </c>
+      <c r="G9" s="30">
+        <v>10.7245793954018</v>
+      </c>
+      <c r="H9" s="30">
+        <v>9.8142164781906303</v>
+      </c>
+      <c r="I9" s="30">
+        <v>11.6883820462118</v>
+      </c>
+      <c r="J9" s="30">
+        <v>10.6409759217303</v>
+      </c>
+      <c r="K9" s="30">
+        <v>10.451078964467699</v>
+      </c>
+      <c r="L9" s="30">
+        <v>10.2093608802125</v>
+      </c>
+      <c r="M9" s="30">
+        <v>13.610922070526801</v>
+      </c>
+      <c r="N9" s="30">
+        <v>13.1095033269794</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="21" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="12">
         <v>1359</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I10" s="12">
         <v>1352</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J10" s="12">
         <v>1318</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K10" s="12">
         <v>1245</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L10" s="12">
         <v>1218</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M10" s="12">
         <v>1228</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="N10" s="12">
+        <v>1259</v>
+      </c>
+      <c r="O10" s="12">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="21" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1200</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1188</v>
+      </c>
+      <c r="J11" s="14">
+        <v>1165</v>
+      </c>
+      <c r="K11" s="14">
+        <v>1111</v>
+      </c>
+      <c r="L11" s="14">
+        <v>1094</v>
+      </c>
+      <c r="M11" s="14">
+        <v>1104</v>
+      </c>
+      <c r="N11" s="12">
+        <v>1134</v>
+      </c>
+      <c r="O11" s="12">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="21" customHeight="1">
+      <c r="A12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="20">
+        <v>159</v>
+      </c>
+      <c r="I12" s="20">
+        <v>164</v>
+      </c>
+      <c r="J12" s="20">
+        <v>153</v>
+      </c>
+      <c r="K12" s="20">
+        <v>134</v>
+      </c>
+      <c r="L12" s="20">
+        <v>124</v>
+      </c>
+      <c r="M12" s="20">
+        <v>124</v>
+      </c>
+      <c r="N12" s="20">
+        <v>125</v>
+      </c>
+      <c r="O12" s="20">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1">
+      <c r="A14" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75">
+      <c r="A24" s="5"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75">
+      <c r="A25" s="5"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75">
+      <c r="A26" s="5"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75">
+      <c r="A27" s="13"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="N27" s="16"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75">
+      <c r="A28" s="5"/>
+      <c r="B28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="16"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75">
+      <c r="A29" s="5"/>
+      <c r="B29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="16"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="16"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75">
+      <c r="A31" s="5"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75">
+      <c r="A32" s="5"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75">
+      <c r="A33" s="5"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:E35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/აჭარა ა.რ/ქობულეთი.xlsx
+++ b/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/აჭარა ა.რ/ქობულეთი.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\აჭარა ა.რ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\აჭარა ა.რ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185F8C9D-1DA3-44F7-B9AE-78521E98F416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA673BC-AAB9-4454-9266-929329C6BA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12075" yWindow="930" windowWidth="9255" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ქობულეთი" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>საჯარო და კერძო ზოგადსაგანმანათლებლო დაწესებულებები ქობულეთის მუნიციპალიტეტში</t>
   </si>
@@ -76,16 +76,22 @@
     <t>მოსწავლეთა რიცხოვნობა (კაცი)</t>
   </si>
   <si>
+    <t xml:space="preserve"> დაწყებითი საფეხურის კურსდამთავრებულთა რიცხოვნობა</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    მათ შორის:   გოგო</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               ბიჭი</t>
+  </si>
+  <si>
+    <t>საბაზო საფეხურის კურსდამთავრებულთა რიცხოვნობა</t>
+  </si>
+  <si>
     <t>საშუალო სკოლის კურსდამთავრებულთა რიცხოვნობა</t>
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    მათ შორის:   გოგო</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                               ბიჭი</t>
   </si>
   <si>
     <t>საშუალო სკოლის კურსდამთავრებულთა რიცხოვნობა 1000 მოსახლეზე;</t>
@@ -110,7 +116,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>წყარო:</t>
     </r>
@@ -119,7 +125,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> საქართველოს განათლებისა და მეცნიერების სამინისტრო.
 </t>
@@ -131,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,49 +152,55 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -196,10 +208,30 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +242,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14993743705557422"/>
       </patternFill>
     </fill>
     <fill>
@@ -260,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -275,41 +313,34 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -324,18 +355,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -656,11 +701,10 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="R2" s="21"/>
     </row>
     <row r="3" spans="1:18" ht="21" customHeight="1">
       <c r="A3" s="7"/>
@@ -691,19 +735,19 @@
       <c r="J3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="22" t="s">
         <v>15</v>
       </c>
     </row>
@@ -711,615 +755,901 @@
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="25">
         <v>53</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="25">
         <v>50</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="25">
         <v>50</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="25">
         <v>50</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="25">
         <v>50</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="25">
         <v>50</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="25">
         <v>50</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="25">
         <v>50</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="25">
         <v>50</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="25">
         <v>49</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="25">
         <v>49</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="25">
         <v>49</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="25">
         <v>49</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="25">
         <v>49</v>
       </c>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="1:18" ht="21" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="26">
         <v>12747</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="26">
         <v>11550</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="26">
         <v>11071</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="26">
         <v>10811</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="26">
         <v>10966</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="26">
         <v>10982</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="26">
         <v>11119</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="26">
         <v>11350</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="26">
         <v>11456</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="26">
         <v>11481</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="26">
         <v>11898</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="26">
         <v>12292</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="26">
         <v>12460</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="26">
         <v>12601</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="30">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="26">
+        <v>1089</v>
+      </c>
+      <c r="D6" s="26">
+        <v>907</v>
+      </c>
+      <c r="E6" s="26">
+        <v>911</v>
+      </c>
+      <c r="F6" s="26">
+        <v>828</v>
+      </c>
+      <c r="G6" s="26">
+        <v>1055</v>
+      </c>
+      <c r="H6" s="26">
+        <v>963</v>
+      </c>
+      <c r="I6" s="26">
+        <v>841</v>
+      </c>
+      <c r="J6" s="26">
+        <v>857</v>
+      </c>
+      <c r="K6" s="26">
+        <v>929</v>
+      </c>
+      <c r="L6" s="26">
+        <v>913</v>
+      </c>
+      <c r="M6" s="26">
+        <v>1187</v>
+      </c>
+      <c r="N6" s="26">
+        <v>1149</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15">
-        <v>783</v>
-      </c>
-      <c r="D6" s="15">
-        <v>843</v>
-      </c>
-      <c r="E6" s="15">
-        <v>621</v>
-      </c>
-      <c r="F6" s="15">
-        <v>774</v>
-      </c>
-      <c r="G6" s="15">
-        <v>800</v>
-      </c>
-      <c r="H6" s="15">
-        <v>177</v>
-      </c>
-      <c r="I6" s="15">
-        <v>863</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="B7" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="26">
+        <v>503</v>
+      </c>
+      <c r="D7" s="26">
+        <v>420</v>
+      </c>
+      <c r="E7" s="26">
+        <v>417</v>
+      </c>
+      <c r="F7" s="26">
+        <v>379</v>
+      </c>
+      <c r="G7" s="26">
+        <v>470</v>
+      </c>
+      <c r="H7" s="26">
+        <v>466</v>
+      </c>
+      <c r="I7" s="26">
+        <v>389</v>
+      </c>
+      <c r="J7" s="26">
+        <v>382</v>
+      </c>
+      <c r="K7" s="26">
+        <v>430</v>
+      </c>
+      <c r="L7" s="26">
+        <v>403</v>
+      </c>
+      <c r="M7" s="26">
+        <v>579</v>
+      </c>
+      <c r="N7" s="26">
+        <v>546</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="29"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="26">
+        <v>586</v>
+      </c>
+      <c r="D8" s="26">
+        <v>487</v>
+      </c>
+      <c r="E8" s="26">
+        <v>494</v>
+      </c>
+      <c r="F8" s="26">
+        <v>449</v>
+      </c>
+      <c r="G8" s="26">
+        <v>585</v>
+      </c>
+      <c r="H8" s="26">
+        <v>497</v>
+      </c>
+      <c r="I8" s="26">
+        <v>452</v>
+      </c>
+      <c r="J8" s="26">
+        <v>475</v>
+      </c>
+      <c r="K8" s="26">
+        <v>499</v>
+      </c>
+      <c r="L8" s="26">
+        <v>510</v>
+      </c>
+      <c r="M8" s="26">
+        <v>608</v>
+      </c>
+      <c r="N8" s="26">
+        <v>603</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="30">
+      <c r="A9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="26">
+        <v>1147</v>
+      </c>
+      <c r="D9" s="26">
+        <v>1073</v>
+      </c>
+      <c r="E9" s="26">
+        <v>884</v>
+      </c>
+      <c r="F9" s="26">
+        <v>1052</v>
+      </c>
+      <c r="G9" s="26">
+        <v>950</v>
+      </c>
+      <c r="H9" s="26">
+        <v>858</v>
+      </c>
+      <c r="I9" s="26">
+        <v>816</v>
+      </c>
+      <c r="J9" s="26">
+        <v>1026</v>
+      </c>
+      <c r="K9" s="26">
+        <v>944</v>
+      </c>
+      <c r="L9" s="26">
+        <v>838</v>
+      </c>
+      <c r="M9" s="26">
+        <v>867</v>
+      </c>
+      <c r="N9" s="26">
+        <v>940</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="26">
+        <v>528</v>
+      </c>
+      <c r="D10" s="26">
+        <v>501</v>
+      </c>
+      <c r="E10" s="26">
+        <v>408</v>
+      </c>
+      <c r="F10" s="26">
+        <v>489</v>
+      </c>
+      <c r="G10" s="26">
+        <v>452</v>
+      </c>
+      <c r="H10" s="26">
+        <v>388</v>
+      </c>
+      <c r="I10" s="26">
+        <v>367</v>
+      </c>
+      <c r="J10" s="26">
+        <v>465</v>
+      </c>
+      <c r="K10" s="26">
+        <v>454</v>
+      </c>
+      <c r="L10" s="26">
+        <v>388</v>
+      </c>
+      <c r="M10" s="26">
+        <v>392</v>
+      </c>
+      <c r="N10" s="26">
+        <v>431</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="29"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="26">
+        <v>619</v>
+      </c>
+      <c r="D11" s="26">
+        <v>572</v>
+      </c>
+      <c r="E11" s="26">
+        <v>476</v>
+      </c>
+      <c r="F11" s="26">
+        <v>563</v>
+      </c>
+      <c r="G11" s="26">
+        <v>498</v>
+      </c>
+      <c r="H11" s="26">
+        <v>470</v>
+      </c>
+      <c r="I11" s="26">
+        <v>449</v>
+      </c>
+      <c r="J11" s="26">
+        <v>561</v>
+      </c>
+      <c r="K11" s="26">
+        <v>490</v>
+      </c>
+      <c r="L11" s="26">
+        <v>450</v>
+      </c>
+      <c r="M11" s="26">
+        <v>475</v>
+      </c>
+      <c r="N11" s="26">
+        <v>509</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="30">
+      <c r="A12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="26">
+        <v>773</v>
+      </c>
+      <c r="D12" s="26">
+        <v>891</v>
+      </c>
+      <c r="E12" s="26">
+        <v>602</v>
+      </c>
+      <c r="F12" s="26">
+        <v>764</v>
+      </c>
+      <c r="G12" s="26">
+        <v>825</v>
+      </c>
+      <c r="H12" s="26">
+        <v>707</v>
+      </c>
+      <c r="I12" s="26">
+        <v>869</v>
+      </c>
+      <c r="J12" s="26">
         <v>782</v>
       </c>
-      <c r="K6" s="15">
-        <v>764</v>
-      </c>
-      <c r="L6" s="15">
+      <c r="K12" s="26">
+        <v>754</v>
+      </c>
+      <c r="L12" s="26">
         <v>740</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M12" s="26">
         <v>980</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N12" s="26">
         <v>925</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O12" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="21" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="21" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="B13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="26">
+        <v>402</v>
+      </c>
+      <c r="D13" s="26">
+        <v>474</v>
+      </c>
+      <c r="E13" s="26">
+        <v>310</v>
+      </c>
+      <c r="F13" s="26">
+        <v>365</v>
+      </c>
+      <c r="G13" s="26">
+        <v>421</v>
+      </c>
+      <c r="H13" s="26">
+        <v>346</v>
+      </c>
+      <c r="I13" s="26">
+        <v>431</v>
+      </c>
+      <c r="J13" s="26">
+        <v>385</v>
+      </c>
+      <c r="K13" s="26">
+        <v>361</v>
+      </c>
+      <c r="L13" s="26">
+        <v>335</v>
+      </c>
+      <c r="M13" s="26">
+        <v>451</v>
+      </c>
+      <c r="N13" s="26">
+        <v>461</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="29"/>
+    </row>
+    <row r="14" spans="1:18" ht="21" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="12">
-        <v>395</v>
-      </c>
-      <c r="D7" s="12">
-        <v>456</v>
-      </c>
-      <c r="E7" s="12">
-        <v>319</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="B14" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="26">
+        <v>388</v>
+      </c>
+      <c r="D14" s="26">
+        <v>417</v>
+      </c>
+      <c r="E14" s="26">
+        <v>292</v>
+      </c>
+      <c r="F14" s="26">
+        <v>399</v>
+      </c>
+      <c r="G14" s="26">
         <v>404</v>
       </c>
-      <c r="G7" s="12">
-        <v>388</v>
-      </c>
-      <c r="H7" s="12">
-        <v>73</v>
-      </c>
-      <c r="I7" s="12">
-        <v>428</v>
-      </c>
-      <c r="J7" s="12">
-        <v>385</v>
-      </c>
-      <c r="K7" s="12">
-        <v>365</v>
-      </c>
-      <c r="L7" s="12">
-        <v>335</v>
-      </c>
-      <c r="M7" s="12">
-        <v>451</v>
-      </c>
-      <c r="N7" s="12">
-        <v>461</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="21" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="12">
-        <v>388</v>
-      </c>
-      <c r="D8" s="12">
-        <v>387</v>
-      </c>
-      <c r="E8" s="12">
-        <v>302</v>
-      </c>
-      <c r="F8" s="12">
-        <v>370</v>
-      </c>
-      <c r="G8" s="12">
-        <v>412</v>
-      </c>
-      <c r="H8" s="12">
-        <v>98</v>
-      </c>
-      <c r="I8" s="12">
-        <v>435</v>
-      </c>
-      <c r="J8" s="12">
+      <c r="H14" s="26">
+        <v>361</v>
+      </c>
+      <c r="I14" s="26">
+        <v>438</v>
+      </c>
+      <c r="J14" s="26">
         <v>397</v>
       </c>
-      <c r="K8" s="12">
-        <v>399</v>
-      </c>
-      <c r="L8" s="12">
+      <c r="K14" s="26">
+        <v>393</v>
+      </c>
+      <c r="L14" s="26">
         <v>405</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M14" s="26">
         <v>529</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N14" s="26">
         <v>464</v>
       </c>
-      <c r="O8" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="30">
-        <v>10.4290147711078</v>
-      </c>
-      <c r="D9" s="30">
-        <v>11.264556733679401</v>
-      </c>
-      <c r="E9" s="30">
-        <v>8.3146443514644393</v>
-      </c>
-      <c r="F9" s="30">
-        <v>10.362763671417399</v>
-      </c>
-      <c r="G9" s="30">
-        <v>10.7245793954018</v>
-      </c>
-      <c r="H9" s="30">
-        <v>9.8142164781906303</v>
-      </c>
-      <c r="I9" s="30">
-        <v>11.6883820462118</v>
-      </c>
-      <c r="J9" s="30">
-        <v>10.6409759217303</v>
-      </c>
-      <c r="K9" s="30">
-        <v>10.451078964467699</v>
-      </c>
-      <c r="L9" s="30">
-        <v>10.2093608802125</v>
-      </c>
-      <c r="M9" s="30">
-        <v>13.610922070526801</v>
-      </c>
-      <c r="N9" s="30">
-        <v>13.1095033269794</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="21" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="O14" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="27.75" customHeight="1">
+      <c r="A15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="33">
+        <v>10.329184288415412</v>
+      </c>
+      <c r="D15" s="33">
+        <v>11.929707112970711</v>
+      </c>
+      <c r="E15" s="33">
+        <v>8.0599272999912976</v>
+      </c>
+      <c r="F15" s="33">
+        <v>10.241973322608754</v>
+      </c>
+      <c r="G15" s="33">
+        <v>11.106623586429725</v>
+      </c>
+      <c r="H15" s="33">
+        <v>9.5755343066879757</v>
+      </c>
+      <c r="I15" s="33">
+        <v>11.824818511488035</v>
+      </c>
+      <c r="J15" s="33">
+        <v>10.697308573578194</v>
+      </c>
+      <c r="K15" s="33">
+        <v>10.402510950919186</v>
+      </c>
+      <c r="L15" s="33">
+        <v>10.277635032846765</v>
+      </c>
+      <c r="M15" s="33">
+        <v>13.746668536961705</v>
+      </c>
+      <c r="N15" s="33">
+        <v>13.109503326979357</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="21" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="26">
         <v>1359</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I16" s="26">
         <v>1352</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J16" s="26">
         <v>1318</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K16" s="26">
         <v>1245</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L16" s="26">
         <v>1218</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M16" s="26">
         <v>1228</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N16" s="26">
         <v>1259</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O16" s="26">
         <v>1278</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="21" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="14">
+    <row r="17" spans="1:15" ht="21" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="27">
         <v>1200</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I17" s="27">
         <v>1188</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J17" s="27">
         <v>1165</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K17" s="27">
         <v>1111</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L17" s="27">
         <v>1094</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M17" s="27">
         <v>1104</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N17" s="26">
         <v>1134</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O17" s="26">
         <v>1151</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="21" customHeight="1">
-      <c r="A12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="20">
+    <row r="18" spans="1:15" ht="21" customHeight="1">
+      <c r="A18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="28">
         <v>159</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I18" s="28">
         <v>164</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J18" s="28">
         <v>153</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K18" s="28">
         <v>134</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L18" s="28">
         <v>124</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M18" s="28">
         <v>124</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N18" s="28">
         <v>125</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O18" s="28">
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1">
-      <c r="A14" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75">
-      <c r="A24" s="5"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75">
-      <c r="A25" s="5"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.75">
-      <c r="A26" s="5"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75">
-      <c r="A27" s="13"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="N27" s="16"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75">
-      <c r="A28" s="5"/>
-      <c r="B28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="16"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.75">
-      <c r="A29" s="5"/>
-      <c r="B29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="16"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="17"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="16"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.75">
+    <row r="19" spans="1:15">
+      <c r="A19" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1">
+      <c r="A20" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.75">
+      <c r="A30" s="5"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75">
       <c r="A31" s="5"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.75">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75">
       <c r="A32" s="5"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
     </row>
     <row r="33" spans="1:14" ht="15.75">
-      <c r="A33" s="5"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="N33" s="15"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75">
+      <c r="A34" s="5"/>
+      <c r="B34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="15"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75">
+      <c r="A35" s="5"/>
+      <c r="B35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="15"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="16"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="15"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75">
+      <c r="A37" s="5"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75">
+      <c r="A38" s="5"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75">
+      <c r="A39" s="5"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:E41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
